--- a/python/real-world-experiments/teapot-table.xlsx
+++ b/python/real-world-experiments/teapot-table.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\12278\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BCDF0BD-3B29-4668-90C0-F0BA4D29CF8F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A462377-5FBD-4306-9C76-803EF3659AC4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1050" yWindow="-120" windowWidth="27870" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t>LLE</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -109,13 +109,45 @@
   <si>
     <t>k=3</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E=2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E=4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E=6</t>
+  </si>
+  <si>
+    <t>E=8</t>
+  </si>
+  <si>
+    <t>E=10</t>
+  </si>
+  <si>
+    <t>E=12</t>
+  </si>
+  <si>
+    <t>E=14</t>
+  </si>
+  <si>
+    <t>E=16</t>
+  </si>
+  <si>
+    <t>E=18</t>
+  </si>
+  <si>
+    <t>E=20</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -130,6 +162,15 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -139,7 +180,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -147,12 +188,42 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -433,384 +504,767 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T6"/>
+  <dimension ref="A1:U15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L30" sqref="L30"/>
+      <selection activeCell="T24" sqref="T24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="B1" t="s">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="C1" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" s="9" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="4"/>
+      <c r="C2">
         <v>4.4417999999999997</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>4.0819000000000001</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>3.7913999999999999</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>3.6932</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>3.6116000000000001</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>3.5920000000000001</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>3.5746000000000002</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>3.5707</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <v>3.5661</v>
       </c>
-      <c r="K2">
+      <c r="L2">
         <v>3.5627</v>
       </c>
-      <c r="L2">
+      <c r="M2">
         <v>3.5592000000000001</v>
       </c>
-      <c r="M2">
+      <c r="N2">
         <v>3.5565000000000002</v>
       </c>
-      <c r="N2">
+      <c r="O2">
         <v>3.5541999999999998</v>
       </c>
-      <c r="O2">
+      <c r="P2">
         <v>3.552</v>
       </c>
-      <c r="P2">
+      <c r="Q2">
         <v>3.5493999999999999</v>
       </c>
-      <c r="Q2">
+      <c r="R2">
         <v>3.5470000000000002</v>
       </c>
-      <c r="R2">
+      <c r="S2">
         <v>3.5449000000000002</v>
       </c>
-      <c r="S2">
+      <c r="T2">
         <v>3.5430999999999999</v>
       </c>
-      <c r="T2">
+      <c r="U2">
         <v>3.5415999999999999</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="4"/>
+      <c r="C3">
         <v>4.4417999999999997</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>4.0820999999999996</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>3.7919999999999998</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>3.6957</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>3.6175999999999999</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>3.6040999999999999</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>3.5954999999999999</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>3.6017000000000001</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>3.6093000000000002</v>
       </c>
-      <c r="K3">
+      <c r="L3">
         <v>3.6181999999999999</v>
       </c>
-      <c r="L3">
+      <c r="M3">
         <v>3.6284999999999998</v>
       </c>
-      <c r="M3">
+      <c r="N3">
         <v>3.6404999999999998</v>
       </c>
-      <c r="N3">
+      <c r="O3">
         <v>3.6543999999999999</v>
       </c>
-      <c r="O3">
+      <c r="P3">
         <v>3.6696</v>
       </c>
-      <c r="P3">
+      <c r="Q3">
         <v>3.6850999999999998</v>
       </c>
-      <c r="Q3">
+      <c r="R3">
         <v>3.7012999999999998</v>
       </c>
-      <c r="R3">
+      <c r="S3">
         <v>3.7185999999999999</v>
       </c>
-      <c r="S3">
+      <c r="T3">
         <v>3.7364000000000002</v>
       </c>
-      <c r="T3">
+      <c r="U3">
         <v>3.7549000000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A4" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="4"/>
+      <c r="C4">
         <v>8.9999999999999998E-4</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>0.76980000000000004</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>7.1999999999999998E-3</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>0.56879999999999997</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>6.1000000000000004E-3</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>0.23180000000000001</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>2.2800000000000001E-2</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>9.98E-2</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>6.1800000000000001E-2</v>
       </c>
-      <c r="K4">
+      <c r="L4">
         <v>0.1011</v>
       </c>
-      <c r="L4">
+      <c r="M4">
         <v>8.5999999999999993E-2</v>
       </c>
-      <c r="M4">
+      <c r="N4">
         <v>0.11550000000000001</v>
       </c>
-      <c r="N4">
+      <c r="O4">
         <v>0.1166</v>
       </c>
-      <c r="O4">
+      <c r="P4">
         <v>0.12939999999999999</v>
       </c>
-      <c r="P4">
+      <c r="Q4">
         <v>0.1424</v>
       </c>
-      <c r="Q4">
+      <c r="R4">
         <v>0.16039999999999999</v>
       </c>
-      <c r="R4">
+      <c r="S4">
         <v>0.17399999999999999</v>
       </c>
-      <c r="S4">
+      <c r="T4">
         <v>0.17319999999999999</v>
       </c>
-      <c r="T4">
+      <c r="U4">
         <v>0.17860000000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A5" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="4"/>
+      <c r="C5">
         <v>1.6000000000000001E-3</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>8.5000000000000006E-3</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>1.35E-2</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>2.5700000000000001E-2</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>2.7400000000000001E-2</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>4.1399999999999999E-2</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>4.5100000000000001E-2</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>0.06</v>
       </c>
-      <c r="J5">
+      <c r="K5">
         <v>6.7400000000000002E-2</v>
       </c>
-      <c r="K5">
+      <c r="L5">
         <v>8.1500000000000003E-2</v>
       </c>
-      <c r="L5">
+      <c r="M5">
         <v>9.2899999999999996E-2</v>
       </c>
-      <c r="M5">
+      <c r="N5">
         <v>0.1071</v>
       </c>
-      <c r="N5">
+      <c r="O5">
         <v>0.12180000000000001</v>
       </c>
-      <c r="O5">
+      <c r="P5">
         <v>0.13650000000000001</v>
       </c>
-      <c r="P5">
+      <c r="Q5">
         <v>0.1512</v>
       </c>
-      <c r="Q5">
+      <c r="R5">
         <v>0.1666</v>
       </c>
-      <c r="R5">
+      <c r="S5">
         <v>0.18179999999999999</v>
       </c>
-      <c r="S5">
+      <c r="T5">
         <v>0.1971</v>
       </c>
-      <c r="T5">
+      <c r="U5">
         <v>0.2127</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A6" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="2">
         <v>1.8599999999999998E-2</v>
       </c>
-      <c r="C6">
+      <c r="D6" s="2">
         <v>1.5954999999999999</v>
       </c>
-      <c r="D6">
+      <c r="E6" s="2">
         <v>2.4314</v>
       </c>
-      <c r="E6">
+      <c r="F6" s="2">
         <v>2.4563999999999999</v>
       </c>
-      <c r="F6">
+      <c r="G6" s="2">
         <v>2.4308000000000001</v>
       </c>
-      <c r="G6">
+      <c r="H6" s="2">
         <v>2.1772</v>
       </c>
-      <c r="H6">
+      <c r="I6" s="2">
         <v>1.5087999999999999</v>
       </c>
-      <c r="I6">
+      <c r="J6" s="2">
         <v>1.2552000000000001</v>
       </c>
-      <c r="J6">
+      <c r="K6" s="2">
         <v>0.77280000000000004</v>
       </c>
-      <c r="K6">
+      <c r="L6" s="2">
         <v>0.55330000000000001</v>
       </c>
-      <c r="L6">
+      <c r="M6" s="2">
         <v>0.3412</v>
       </c>
-      <c r="M6">
+      <c r="N6" s="2">
         <v>0.29289999999999999</v>
       </c>
-      <c r="N6">
+      <c r="O6" s="2">
         <v>0.27060000000000001</v>
       </c>
-      <c r="O6">
+      <c r="P6" s="2">
         <v>0.26369999999999999</v>
       </c>
-      <c r="P6">
+      <c r="Q6" s="2">
         <v>0.25369999999999998</v>
       </c>
-      <c r="Q6">
+      <c r="R6" s="2">
         <v>0.2787</v>
       </c>
-      <c r="R6">
+      <c r="S6" s="2">
         <v>0.30030000000000001</v>
       </c>
-      <c r="S6">
+      <c r="T6" s="2">
         <v>0.32700000000000001</v>
       </c>
-      <c r="T6">
+      <c r="U6" s="2">
         <v>0.3488</v>
       </c>
     </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A7" s="7"/>
+      <c r="B7" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="3">
+        <v>0</v>
+      </c>
+      <c r="D7" s="1">
+        <v>0.85899999999999999</v>
+      </c>
+      <c r="E7" s="1">
+        <v>1.1440999999999999</v>
+      </c>
+      <c r="F7" s="1">
+        <v>0.87749999999999995</v>
+      </c>
+      <c r="G7" s="1">
+        <v>0.38900000000000001</v>
+      </c>
+      <c r="H7" s="1">
+        <v>0.26860000000000001</v>
+      </c>
+      <c r="I7" s="1">
+        <v>8.1600000000000006E-2</v>
+      </c>
+      <c r="J7" s="1">
+        <v>6.3700000000000007E-2</v>
+      </c>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+      <c r="O7" s="1"/>
+      <c r="P7" s="1"/>
+      <c r="Q7" s="1"/>
+      <c r="R7" s="1"/>
+      <c r="S7" s="1"/>
+      <c r="T7" s="1"/>
+      <c r="U7" s="1"/>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A8" s="7"/>
+      <c r="B8" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" s="3">
+        <v>0</v>
+      </c>
+      <c r="D8" s="1">
+        <v>0.5514</v>
+      </c>
+      <c r="E8" s="1">
+        <v>0.61380000000000001</v>
+      </c>
+      <c r="F8" s="1">
+        <v>0.39889999999999998</v>
+      </c>
+      <c r="G8" s="1">
+        <v>9.5100000000000004E-2</v>
+      </c>
+      <c r="H8" s="1">
+        <v>5.6800000000000003E-2</v>
+      </c>
+      <c r="I8" s="1">
+        <v>2.18E-2</v>
+      </c>
+      <c r="J8" s="1">
+        <v>3.5299999999999998E-2</v>
+      </c>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+      <c r="M8" s="1"/>
+      <c r="N8" s="1"/>
+      <c r="O8" s="1"/>
+      <c r="P8" s="1"/>
+      <c r="Q8" s="1"/>
+      <c r="R8" s="1"/>
+      <c r="S8" s="1"/>
+      <c r="T8" s="1"/>
+      <c r="U8" s="1"/>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A9" s="7"/>
+      <c r="B9" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" s="3">
+        <v>0</v>
+      </c>
+      <c r="D9" s="1">
+        <v>0.39269999999999999</v>
+      </c>
+      <c r="E9" s="1">
+        <v>0.3594</v>
+      </c>
+      <c r="F9" s="1">
+        <v>0.1981</v>
+      </c>
+      <c r="G9" s="1">
+        <v>2.8400000000000002E-2</v>
+      </c>
+      <c r="H9" s="1">
+        <v>2.0199999999999999E-2</v>
+      </c>
+      <c r="I9" s="1">
+        <v>1.61E-2</v>
+      </c>
+      <c r="J9" s="1">
+        <v>3.0499999999999999E-2</v>
+      </c>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+      <c r="O9" s="1"/>
+      <c r="P9" s="1"/>
+      <c r="Q9" s="1"/>
+      <c r="R9" s="1"/>
+      <c r="S9" s="1"/>
+      <c r="T9" s="1"/>
+      <c r="U9" s="1"/>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A10" s="7"/>
+      <c r="B10" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" s="3">
+        <v>0</v>
+      </c>
+      <c r="D10" s="1">
+        <v>0.29709999999999998</v>
+      </c>
+      <c r="E10" s="1">
+        <v>0.2225</v>
+      </c>
+      <c r="F10" s="1">
+        <v>0.1037</v>
+      </c>
+      <c r="G10" s="1">
+        <v>1.11E-2</v>
+      </c>
+      <c r="H10" s="1">
+        <v>1.2500000000000001E-2</v>
+      </c>
+      <c r="I10" s="1">
+        <v>1.4500000000000001E-2</v>
+      </c>
+      <c r="J10" s="1">
+        <v>2.7300000000000001E-2</v>
+      </c>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
+      <c r="N10" s="1"/>
+      <c r="O10" s="1"/>
+      <c r="P10" s="1"/>
+      <c r="Q10" s="1"/>
+      <c r="R10" s="1"/>
+      <c r="S10" s="1"/>
+      <c r="T10" s="1"/>
+      <c r="U10" s="1"/>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A11" s="7"/>
+      <c r="B11" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" s="3">
+        <v>0</v>
+      </c>
+      <c r="D11" s="1">
+        <v>0.2329</v>
+      </c>
+      <c r="E11" s="1">
+        <v>0.1431</v>
+      </c>
+      <c r="F11" s="1">
+        <v>5.6500000000000002E-2</v>
+      </c>
+      <c r="G11" s="1">
+        <v>6.1999999999999998E-3</v>
+      </c>
+      <c r="H11" s="1">
+        <v>1.0200000000000001E-2</v>
+      </c>
+      <c r="I11" s="1">
+        <v>1.34E-2</v>
+      </c>
+      <c r="J11" s="1">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+      <c r="M11" s="1"/>
+      <c r="N11" s="1"/>
+      <c r="O11" s="1"/>
+      <c r="P11" s="1"/>
+      <c r="Q11" s="1"/>
+      <c r="R11" s="1"/>
+      <c r="S11" s="1"/>
+      <c r="T11" s="1"/>
+      <c r="U11" s="1"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A12" s="7"/>
+      <c r="B12" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12" s="3">
+        <v>0</v>
+      </c>
+      <c r="D12" s="1">
+        <v>0.18659999999999999</v>
+      </c>
+      <c r="E12" s="1">
+        <v>9.4600000000000004E-2</v>
+      </c>
+      <c r="F12" s="1">
+        <v>3.1899999999999998E-2</v>
+      </c>
+      <c r="G12" s="1">
+        <v>4.5999999999999999E-3</v>
+      </c>
+      <c r="H12" s="1">
+        <v>9.1999999999999998E-3</v>
+      </c>
+      <c r="I12" s="1">
+        <v>1.26E-2</v>
+      </c>
+      <c r="J12" s="1">
+        <v>2.3199999999999998E-2</v>
+      </c>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+      <c r="M12" s="1"/>
+      <c r="N12" s="1"/>
+      <c r="O12" s="1"/>
+      <c r="P12" s="1"/>
+      <c r="Q12" s="1"/>
+      <c r="R12" s="1"/>
+      <c r="S12" s="1"/>
+      <c r="T12" s="1"/>
+      <c r="U12" s="1"/>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A13" s="7"/>
+      <c r="B13" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C13" s="3">
+        <v>0</v>
+      </c>
+      <c r="D13" s="1">
+        <v>0.15190000000000001</v>
+      </c>
+      <c r="E13" s="1">
+        <v>6.3899999999999998E-2</v>
+      </c>
+      <c r="F13" s="1">
+        <v>1.8599999999999998E-2</v>
+      </c>
+      <c r="G13" s="1">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="H13" s="1">
+        <v>8.5000000000000006E-3</v>
+      </c>
+      <c r="I13" s="1">
+        <v>1.1900000000000001E-2</v>
+      </c>
+      <c r="J13" s="1">
+        <v>2.1700000000000001E-2</v>
+      </c>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+      <c r="M13" s="1"/>
+      <c r="N13" s="1"/>
+      <c r="O13" s="1"/>
+      <c r="P13" s="1"/>
+      <c r="Q13" s="1"/>
+      <c r="R13" s="1"/>
+      <c r="S13" s="1"/>
+      <c r="T13" s="1"/>
+      <c r="U13" s="1"/>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A14" s="7"/>
+      <c r="B14" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C14" s="3">
+        <v>0</v>
+      </c>
+      <c r="D14" s="1">
+        <v>0.12509999999999999</v>
+      </c>
+      <c r="E14" s="1">
+        <v>4.3999999999999997E-2</v>
+      </c>
+      <c r="F14" s="1">
+        <v>1.12E-2</v>
+      </c>
+      <c r="G14" s="1">
+        <v>3.7000000000000002E-3</v>
+      </c>
+      <c r="H14" s="1">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="I14" s="1">
+        <v>1.1299999999999999E-2</v>
+      </c>
+      <c r="J14" s="1">
+        <v>2.0500000000000001E-2</v>
+      </c>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+      <c r="M14" s="1"/>
+      <c r="N14" s="1"/>
+      <c r="O14" s="1"/>
+      <c r="P14" s="1"/>
+      <c r="Q14" s="1"/>
+      <c r="R14" s="1"/>
+      <c r="S14" s="1"/>
+      <c r="T14" s="1"/>
+      <c r="U14" s="1"/>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A15" s="7"/>
+      <c r="B15" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C15" s="3">
+        <v>0</v>
+      </c>
+      <c r="D15" s="1">
+        <v>0.104</v>
+      </c>
+      <c r="E15" s="1">
+        <v>3.0700000000000002E-2</v>
+      </c>
+      <c r="F15" s="1">
+        <v>7.1000000000000004E-3</v>
+      </c>
+      <c r="G15" s="1">
+        <v>3.3999999999999998E-3</v>
+      </c>
+      <c r="H15" s="1">
+        <v>7.6E-3</v>
+      </c>
+      <c r="I15" s="1">
+        <v>1.0800000000000001E-2</v>
+      </c>
+      <c r="J15" s="1">
+        <v>1.9400000000000001E-2</v>
+      </c>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
+      <c r="M15" s="1"/>
+      <c r="N15" s="1"/>
+      <c r="O15" s="1"/>
+      <c r="P15" s="1"/>
+      <c r="Q15" s="1"/>
+      <c r="R15" s="1"/>
+      <c r="S15" s="1"/>
+      <c r="T15" s="1"/>
+      <c r="U15" s="1"/>
+    </row>
   </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A6:A15"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
